--- a/WorkBot/refactor/data/orders/US Foods/US Foods_Triphammer_2025-08-07.xlsx
+++ b/WorkBot/refactor/data/orders/US Foods/US Foods_Triphammer_2025-08-07.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,6 +907,465 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>7520950</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Can - Pizza Sauce</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>8457368</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Oil - Corn</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>35.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>141.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>8255796</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tuna White Chunk (Pouch)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>360.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1028165</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pickle - Dill Chip</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>34.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7722184</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Parmesan (Grated)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>59.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>59.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1027629</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cheddar - (Sliced)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>418.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1035842</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Feta - Pail</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>6364494</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Yogurt - Greek (Bulk)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>53.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1365278</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Vegan Chicken Tenders</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>175.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3275539</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sauerkraut</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1028188</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Tortellini - Cheese</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>128.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7529232</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Wrap - Wheat (10")</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>31.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2825368</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sausage - Chicken Patty</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>50.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>200.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4157160</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Spanakopita</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>151.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2477933</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Bacon (Pre-Cooked)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>36.40</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>728.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>9546982</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Arugula - Fresh</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2054542</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Carrots - Jumbo Fresh</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
